--- a/trunk/documentation/draft/directory-layout/web-directory-layout.xlsx
+++ b/trunk/documentation/draft/directory-layout/web-directory-layout.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
   <si>
     <t>/themes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/css</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +650,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -889,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>57</v>
